--- a/_excelOutput/UJ.xlsx
+++ b/_excelOutput/UJ.xlsx
@@ -20164,13 +20164,13 @@
         <v>9</v>
       </c>
       <c r="E852" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F852" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G852" t="n">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="853">
@@ -20190,10 +20190,10 @@
         <v>23</v>
       </c>
       <c r="F853" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G853" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="854">
@@ -20213,10 +20213,10 @@
         <v>23</v>
       </c>
       <c r="F854" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G854" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="855">
@@ -20236,10 +20236,10 @@
         <v>23</v>
       </c>
       <c r="F855" t="s">
+        <v>13</v>
+      </c>
+      <c r="G855" t="n">
         <v>14</v>
-      </c>
-      <c r="G855" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="856">
@@ -20259,10 +20259,10 @@
         <v>23</v>
       </c>
       <c r="F856" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G856" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="857">
@@ -20282,10 +20282,10 @@
         <v>23</v>
       </c>
       <c r="F857" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G857" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="858">
@@ -20305,10 +20305,10 @@
         <v>23</v>
       </c>
       <c r="F858" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G858" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="859">
@@ -20325,13 +20325,13 @@
         <v>9</v>
       </c>
       <c r="E859" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F859" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G859" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="860">
@@ -20348,13 +20348,13 @@
         <v>9</v>
       </c>
       <c r="E860" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F860" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G860" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="861">
@@ -20374,10 +20374,10 @@
         <v>24</v>
       </c>
       <c r="F861" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G861" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="862">
@@ -20397,10 +20397,10 @@
         <v>24</v>
       </c>
       <c r="F862" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G862" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="863">
@@ -20420,10 +20420,10 @@
         <v>24</v>
       </c>
       <c r="F863" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G863" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="864">
@@ -20443,7 +20443,7 @@
         <v>24</v>
       </c>
       <c r="F864" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G864" t="n">
         <v>6</v>
@@ -20466,10 +20466,10 @@
         <v>24</v>
       </c>
       <c r="F865" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G865" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="866">
@@ -20486,13 +20486,13 @@
         <v>9</v>
       </c>
       <c r="E866" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F866" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G866" t="n">
-        <v>87</v>
+        <v>6</v>
       </c>
     </row>
     <row r="867">
@@ -20509,13 +20509,13 @@
         <v>9</v>
       </c>
       <c r="E867" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F867" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G867" t="n">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="868">
@@ -20532,13 +20532,13 @@
         <v>9</v>
       </c>
       <c r="E868" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F868" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G868" t="n">
-        <v>110</v>
+        <v>8</v>
       </c>
     </row>
     <row r="869">
@@ -20558,10 +20558,10 @@
         <v>25</v>
       </c>
       <c r="F869" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G869" t="n">
-        <v>103</v>
+        <v>87</v>
       </c>
     </row>
     <row r="870">
@@ -20581,10 +20581,10 @@
         <v>25</v>
       </c>
       <c r="F870" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G870" t="n">
-        <v>116</v>
+        <v>97</v>
       </c>
     </row>
     <row r="871">
@@ -20604,10 +20604,10 @@
         <v>25</v>
       </c>
       <c r="F871" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G871" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="872">
@@ -20627,10 +20627,10 @@
         <v>25</v>
       </c>
       <c r="F872" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G872" t="n">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="873">
@@ -20647,13 +20647,13 @@
         <v>9</v>
       </c>
       <c r="E873" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F873" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G873" t="n">
-        <v>4</v>
+        <v>116</v>
       </c>
     </row>
     <row r="874">
@@ -20670,13 +20670,13 @@
         <v>9</v>
       </c>
       <c r="E874" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F874" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G874" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="875">
@@ -20693,13 +20693,13 @@
         <v>9</v>
       </c>
       <c r="E875" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F875" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G875" t="n">
-        <v>2</v>
+        <v>115</v>
       </c>
     </row>
     <row r="876">
@@ -20716,13 +20716,13 @@
         <v>9</v>
       </c>
       <c r="E876" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F876" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G876" t="n">
-        <v>1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="877">
@@ -20742,7 +20742,7 @@
         <v>26</v>
       </c>
       <c r="F877" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G877" t="n">
         <v>4</v>
@@ -20765,10 +20765,10 @@
         <v>26</v>
       </c>
       <c r="F878" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G878" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="879">
@@ -20788,10 +20788,10 @@
         <v>26</v>
       </c>
       <c r="F879" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G879" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880">
@@ -20805,16 +20805,16 @@
         <v>8</v>
       </c>
       <c r="D880" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E880" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F880" t="s">
         <v>14</v>
       </c>
       <c r="G880" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881">
@@ -20828,16 +20828,16 @@
         <v>8</v>
       </c>
       <c r="D881" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E881" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F881" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G881" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="882">
@@ -20851,16 +20851,16 @@
         <v>8</v>
       </c>
       <c r="D882" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E882" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F882" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G882" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="883">
@@ -20874,16 +20874,16 @@
         <v>8</v>
       </c>
       <c r="D883" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E883" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F883" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G883" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="884">
@@ -20897,16 +20897,16 @@
         <v>8</v>
       </c>
       <c r="D884" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E884" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F884" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G884" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="885">
@@ -20920,16 +20920,16 @@
         <v>8</v>
       </c>
       <c r="D885" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E885" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F885" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G885" t="n">
-        <v>4295.68</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886">
@@ -20943,16 +20943,16 @@
         <v>8</v>
       </c>
       <c r="D886" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E886" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F886" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G886" t="n">
-        <v>3845.68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887">
@@ -20966,16 +20966,16 @@
         <v>8</v>
       </c>
       <c r="D887" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E887" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F887" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G887" t="n">
-        <v>26939.47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="888">
@@ -20989,16 +20989,16 @@
         <v>8</v>
       </c>
       <c r="D888" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E888" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F888" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G888" t="n">
-        <v>2945.68</v>
+        <v>2</v>
       </c>
     </row>
     <row r="889">
@@ -21012,16 +21012,16 @@
         <v>8</v>
       </c>
       <c r="D889" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E889" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F889" t="s">
         <v>15</v>
       </c>
       <c r="G889" t="n">
-        <v>2945.68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890">
@@ -21035,16 +21035,16 @@
         <v>8</v>
       </c>
       <c r="D890" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E890" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F890" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G890" t="n">
-        <v>2945.68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891">
@@ -21058,16 +21058,16 @@
         <v>8</v>
       </c>
       <c r="D891" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E891" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F891" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G891" t="n">
-        <v>2945.68</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892">
@@ -21081,16 +21081,16 @@
         <v>8</v>
       </c>
       <c r="D892" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E892" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F892" t="s">
         <v>11</v>
       </c>
       <c r="G892" t="n">
-        <v>3</v>
+        <v>4295.68</v>
       </c>
     </row>
     <row r="893">
@@ -21104,16 +21104,16 @@
         <v>8</v>
       </c>
       <c r="D893" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E893" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F893" t="s">
         <v>12</v>
       </c>
       <c r="G893" t="n">
-        <v>1</v>
+        <v>3845.68</v>
       </c>
     </row>
     <row r="894">
@@ -21127,16 +21127,16 @@
         <v>8</v>
       </c>
       <c r="D894" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E894" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F894" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G894" t="n">
-        <v>1</v>
+        <v>26939.47</v>
       </c>
     </row>
     <row r="895">
@@ -21150,16 +21150,16 @@
         <v>8</v>
       </c>
       <c r="D895" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E895" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F895" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G895" t="n">
-        <v>3</v>
+        <v>2945.68</v>
       </c>
     </row>
     <row r="896">
@@ -21173,16 +21173,16 @@
         <v>8</v>
       </c>
       <c r="D896" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E896" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F896" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G896" t="n">
-        <v>2</v>
+        <v>2945.68</v>
       </c>
     </row>
     <row r="897">
@@ -21196,16 +21196,16 @@
         <v>8</v>
       </c>
       <c r="D897" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E897" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F897" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G897" t="n">
-        <v>1</v>
+        <v>2945.68</v>
       </c>
     </row>
     <row r="898">
@@ -21219,16 +21219,16 @@
         <v>8</v>
       </c>
       <c r="D898" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E898" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F898" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G898" t="n">
-        <v>2</v>
+        <v>2945.68</v>
       </c>
     </row>
     <row r="899">
@@ -21242,16 +21242,16 @@
         <v>8</v>
       </c>
       <c r="D899" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E899" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F899" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G899" t="n">
-        <v>4</v>
+        <v>6945.68</v>
       </c>
     </row>
     <row r="900">
@@ -21268,13 +21268,13 @@
         <v>35</v>
       </c>
       <c r="E900" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F900" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G900" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="901">
@@ -21285,16 +21285,16 @@
         <v>2024</v>
       </c>
       <c r="C901" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D901" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E901" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F901" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G901" t="n">
         <v>1</v>
@@ -21308,19 +21308,19 @@
         <v>2024</v>
       </c>
       <c r="C902" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D902" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E902" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F902" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G902" t="n">
-        <v>828</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903">
@@ -21331,19 +21331,19 @@
         <v>2024</v>
       </c>
       <c r="C903" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D903" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E903" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F903" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G903" t="n">
-        <v>827</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904">
@@ -21354,19 +21354,19 @@
         <v>2024</v>
       </c>
       <c r="C904" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D904" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E904" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F904" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G904" t="n">
-        <v>827</v>
+        <v>3</v>
       </c>
     </row>
     <row r="905">
@@ -21377,19 +21377,19 @@
         <v>2024</v>
       </c>
       <c r="C905" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D905" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E905" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F905" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G905" t="n">
-        <v>827</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906">
@@ -21400,19 +21400,19 @@
         <v>2024</v>
       </c>
       <c r="C906" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D906" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E906" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F906" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G906" t="n">
-        <v>824</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907">
@@ -21423,19 +21423,19 @@
         <v>2024</v>
       </c>
       <c r="C907" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D907" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E907" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F907" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G907" t="n">
-        <v>824</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908">
@@ -21446,19 +21446,19 @@
         <v>2024</v>
       </c>
       <c r="C908" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D908" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E908" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F908" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G908" t="n">
-        <v>816</v>
+        <v>4</v>
       </c>
     </row>
     <row r="909">
@@ -21469,19 +21469,19 @@
         <v>2024</v>
       </c>
       <c r="C909" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D909" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E909" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F909" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G909" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910">
@@ -21492,16 +21492,16 @@
         <v>2024</v>
       </c>
       <c r="C910" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D910" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E910" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F910" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G910" t="n">
         <v>1</v>
@@ -21521,13 +21521,13 @@
         <v>39</v>
       </c>
       <c r="E911" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F911" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G911" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912">
@@ -21544,13 +21544,13 @@
         <v>39</v>
       </c>
       <c r="E912" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F912" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G912" t="n">
-        <v>8</v>
+        <v>828</v>
       </c>
     </row>
     <row r="913">
@@ -21564,16 +21564,16 @@
         <v>38</v>
       </c>
       <c r="D913" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E913" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F913" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G913" t="n">
-        <v>294301.36</v>
+        <v>827</v>
       </c>
     </row>
     <row r="914">
@@ -21587,16 +21587,16 @@
         <v>38</v>
       </c>
       <c r="D914" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E914" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F914" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G914" t="n">
-        <v>74729.06</v>
+        <v>827</v>
       </c>
     </row>
     <row r="915">
@@ -21610,16 +21610,16 @@
         <v>38</v>
       </c>
       <c r="D915" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E915" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F915" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G915" t="n">
-        <v>85883.34</v>
+        <v>827</v>
       </c>
     </row>
     <row r="916">
@@ -21633,16 +21633,16 @@
         <v>38</v>
       </c>
       <c r="D916" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E916" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F916" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G916" t="n">
-        <v>75502.02</v>
+        <v>824</v>
       </c>
     </row>
     <row r="917">
@@ -21656,16 +21656,16 @@
         <v>38</v>
       </c>
       <c r="D917" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E917" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F917" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G917" t="n">
-        <v>121114.27</v>
+        <v>824</v>
       </c>
     </row>
     <row r="918">
@@ -21679,16 +21679,16 @@
         <v>38</v>
       </c>
       <c r="D918" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E918" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F918" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G918" t="n">
-        <v>55720.38</v>
+        <v>816</v>
       </c>
     </row>
     <row r="919">
@@ -21702,16 +21702,16 @@
         <v>38</v>
       </c>
       <c r="D919" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E919" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F919" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G919" t="n">
-        <v>60722.31</v>
+        <v>816</v>
       </c>
     </row>
     <row r="920">
@@ -21725,16 +21725,16 @@
         <v>38</v>
       </c>
       <c r="D920" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E920" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="F920" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G920" t="n">
-        <v>658424.79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921">
@@ -21748,16 +21748,16 @@
         <v>38</v>
       </c>
       <c r="D921" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E921" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F921" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G921" t="n">
-        <v>82319.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922">
@@ -21771,16 +21771,16 @@
         <v>38</v>
       </c>
       <c r="D922" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E922" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F922" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G922" t="n">
-        <v>63561.76</v>
+        <v>3</v>
       </c>
     </row>
     <row r="923">
@@ -21794,16 +21794,16 @@
         <v>38</v>
       </c>
       <c r="D923" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E923" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F923" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G923" t="n">
-        <v>42823.25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="924">
@@ -21817,16 +21817,16 @@
         <v>38</v>
       </c>
       <c r="D924" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E924" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F924" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G924" t="n">
-        <v>234274.17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925">
@@ -21840,16 +21840,16 @@
         <v>38</v>
       </c>
       <c r="D925" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E925" t="s">
         <v>44</v>
       </c>
       <c r="F925" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G925" t="n">
-        <v>172212.3</v>
+        <v>294301.36</v>
       </c>
     </row>
     <row r="926">
@@ -21863,16 +21863,16 @@
         <v>38</v>
       </c>
       <c r="D926" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E926" t="s">
         <v>44</v>
       </c>
       <c r="F926" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G926" t="n">
-        <v>44499.16</v>
+        <v>74729.06</v>
       </c>
     </row>
     <row r="927">
@@ -21886,16 +21886,16 @@
         <v>38</v>
       </c>
       <c r="D927" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E927" t="s">
         <v>44</v>
       </c>
       <c r="F927" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G927" t="n">
-        <v>34397.86</v>
+        <v>85883.34</v>
       </c>
     </row>
     <row r="928">
@@ -21909,16 +21909,16 @@
         <v>38</v>
       </c>
       <c r="D928" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E928" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="F928" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G928" t="n">
-        <v>142069114.61</v>
+        <v>75502.02</v>
       </c>
     </row>
     <row r="929">
@@ -21932,16 +21932,16 @@
         <v>38</v>
       </c>
       <c r="D929" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E929" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="F929" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G929" t="n">
-        <v>26102763.6</v>
+        <v>121114.27</v>
       </c>
     </row>
     <row r="930">
@@ -21955,16 +21955,16 @@
         <v>38</v>
       </c>
       <c r="D930" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E930" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="F930" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G930" t="n">
-        <v>1258255.57</v>
+        <v>55720.38</v>
       </c>
     </row>
     <row r="931">
@@ -21978,16 +21978,16 @@
         <v>38</v>
       </c>
       <c r="D931" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E931" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="F931" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G931" t="n">
-        <v>986609.39</v>
+        <v>60722.31</v>
       </c>
     </row>
     <row r="932">
@@ -22001,16 +22001,16 @@
         <v>38</v>
       </c>
       <c r="D932" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E932" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="F932" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G932" t="n">
-        <v>1504191.36</v>
+        <v>61743.91</v>
       </c>
     </row>
     <row r="933">
@@ -22024,16 +22024,16 @@
         <v>38</v>
       </c>
       <c r="D933" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E933" t="s">
         <v>77</v>
       </c>
       <c r="F933" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G933" t="n">
-        <v>1291324</v>
+        <v>658424.79</v>
       </c>
     </row>
     <row r="934">
@@ -22050,13 +22050,13 @@
         <v>45</v>
       </c>
       <c r="E934" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="F934" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G934" t="n">
-        <v>885054.93</v>
+        <v>82319.12</v>
       </c>
     </row>
     <row r="935">
@@ -22070,16 +22070,16 @@
         <v>38</v>
       </c>
       <c r="D935" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E935" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F935" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G935" t="n">
-        <v>2</v>
+        <v>63561.76</v>
       </c>
     </row>
     <row r="936">
@@ -22093,16 +22093,16 @@
         <v>38</v>
       </c>
       <c r="D936" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E936" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F936" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G936" t="n">
-        <v>1</v>
+        <v>42823.25</v>
       </c>
     </row>
     <row r="937">
@@ -22116,16 +22116,16 @@
         <v>38</v>
       </c>
       <c r="D937" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E937" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F937" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G937" t="n">
-        <v>1</v>
+        <v>234274.17</v>
       </c>
     </row>
     <row r="938">
@@ -22139,16 +22139,16 @@
         <v>38</v>
       </c>
       <c r="D938" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E938" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F938" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G938" t="n">
-        <v>98</v>
+        <v>172212.3</v>
       </c>
     </row>
     <row r="939">
@@ -22162,16 +22162,16 @@
         <v>38</v>
       </c>
       <c r="D939" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E939" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F939" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G939" t="n">
-        <v>93</v>
+        <v>44499.16</v>
       </c>
     </row>
     <row r="940">
@@ -22185,16 +22185,16 @@
         <v>38</v>
       </c>
       <c r="D940" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E940" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F940" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G940" t="n">
-        <v>99</v>
+        <v>34397.86</v>
       </c>
     </row>
     <row r="941">
@@ -22208,16 +22208,16 @@
         <v>38</v>
       </c>
       <c r="D941" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E941" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F941" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G941" t="n">
-        <v>119</v>
+        <v>74718.23</v>
       </c>
     </row>
     <row r="942">
@@ -22231,16 +22231,16 @@
         <v>38</v>
       </c>
       <c r="D942" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E942" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="F942" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G942" t="n">
-        <v>111</v>
+        <v>142069114.61</v>
       </c>
     </row>
     <row r="943">
@@ -22254,16 +22254,16 @@
         <v>38</v>
       </c>
       <c r="D943" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E943" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="F943" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G943" t="n">
-        <v>129</v>
+        <v>26102763.6</v>
       </c>
     </row>
     <row r="944">
@@ -22277,16 +22277,16 @@
         <v>38</v>
       </c>
       <c r="D944" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E944" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="F944" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G944" t="n">
-        <v>107</v>
+        <v>1258255.57</v>
       </c>
     </row>
     <row r="945">
@@ -22300,16 +22300,16 @@
         <v>38</v>
       </c>
       <c r="D945" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E945" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="F945" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G945" t="n">
-        <v>60</v>
+        <v>986609.39</v>
       </c>
     </row>
     <row r="946">
@@ -22323,16 +22323,16 @@
         <v>38</v>
       </c>
       <c r="D946" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E946" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="F946" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G946" t="n">
-        <v>36</v>
+        <v>1504191.36</v>
       </c>
     </row>
     <row r="947">
@@ -22346,16 +22346,16 @@
         <v>38</v>
       </c>
       <c r="D947" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E947" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="F947" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G947" t="n">
-        <v>38</v>
+        <v>1291324</v>
       </c>
     </row>
     <row r="948">
@@ -22369,16 +22369,16 @@
         <v>38</v>
       </c>
       <c r="D948" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E948" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="F948" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G948" t="n">
-        <v>47</v>
+        <v>885054.93</v>
       </c>
     </row>
     <row r="949">
@@ -22392,16 +22392,16 @@
         <v>38</v>
       </c>
       <c r="D949" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E949" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="F949" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G949" t="n">
-        <v>47</v>
+        <v>4194643.45</v>
       </c>
     </row>
     <row r="950">
@@ -22415,16 +22415,16 @@
         <v>38</v>
       </c>
       <c r="D950" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E950" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F950" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G950" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951">
@@ -22438,16 +22438,16 @@
         <v>38</v>
       </c>
       <c r="D951" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E951" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F951" t="s">
         <v>17</v>
       </c>
       <c r="G951" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="952">
@@ -22461,16 +22461,16 @@
         <v>38</v>
       </c>
       <c r="D952" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E952" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F952" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G952" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="953">
@@ -22484,16 +22484,16 @@
         <v>38</v>
       </c>
       <c r="D953" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E953" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F953" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G953" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="954">
@@ -22507,16 +22507,16 @@
         <v>38</v>
       </c>
       <c r="D954" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E954" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F954" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G954" t="n">
-        <v>20</v>
+        <v>98</v>
       </c>
     </row>
     <row r="955">
@@ -22530,16 +22530,16 @@
         <v>38</v>
       </c>
       <c r="D955" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E955" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F955" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G955" t="n">
-        <v>28</v>
+        <v>93</v>
       </c>
     </row>
     <row r="956">
@@ -22553,16 +22553,16 @@
         <v>38</v>
       </c>
       <c r="D956" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E956" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F956" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G956" t="n">
-        <v>19</v>
+        <v>99</v>
       </c>
     </row>
     <row r="957">
@@ -22576,16 +22576,16 @@
         <v>38</v>
       </c>
       <c r="D957" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E957" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F957" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G957" t="n">
-        <v>25</v>
+        <v>119</v>
       </c>
     </row>
     <row r="958">
@@ -22599,16 +22599,16 @@
         <v>38</v>
       </c>
       <c r="D958" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E958" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F958" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G958" t="n">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="959">
@@ -22622,16 +22622,16 @@
         <v>38</v>
       </c>
       <c r="D959" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E959" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F959" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G959" t="n">
-        <v>17</v>
+        <v>129</v>
       </c>
     </row>
     <row r="960">
@@ -22645,16 +22645,16 @@
         <v>38</v>
       </c>
       <c r="D960" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E960" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F960" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G960" t="n">
-        <v>25</v>
+        <v>107</v>
       </c>
     </row>
     <row r="961">
@@ -22668,16 +22668,16 @@
         <v>38</v>
       </c>
       <c r="D961" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E961" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F961" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G961" t="n">
-        <v>29</v>
+        <v>116</v>
       </c>
     </row>
     <row r="962">
@@ -22691,16 +22691,16 @@
         <v>38</v>
       </c>
       <c r="D962" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E962" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F962" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G962" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="963">
@@ -22714,16 +22714,16 @@
         <v>38</v>
       </c>
       <c r="D963" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E963" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F963" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G963" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="964">
@@ -22737,16 +22737,16 @@
         <v>38</v>
       </c>
       <c r="D964" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E964" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F964" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G964" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="965">
@@ -22760,16 +22760,16 @@
         <v>38</v>
       </c>
       <c r="D965" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E965" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F965" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G965" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="966">
@@ -22783,16 +22783,16 @@
         <v>38</v>
       </c>
       <c r="D966" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E966" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F966" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G966" t="n">
-        <v>6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="967">
@@ -22806,16 +22806,16 @@
         <v>38</v>
       </c>
       <c r="D967" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E967" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F967" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G967" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="968">
@@ -22829,16 +22829,16 @@
         <v>38</v>
       </c>
       <c r="D968" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E968" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F968" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G968" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="969">
@@ -22852,16 +22852,16 @@
         <v>38</v>
       </c>
       <c r="D969" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E969" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F969" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G969" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="970">
@@ -22875,16 +22875,16 @@
         <v>38</v>
       </c>
       <c r="D970" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E970" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F970" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G970" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="971">
@@ -22898,16 +22898,16 @@
         <v>38</v>
       </c>
       <c r="D971" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E971" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F971" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G971" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="972">
@@ -22921,16 +22921,16 @@
         <v>38</v>
       </c>
       <c r="D972" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E972" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F972" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G972" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="973">
@@ -22944,16 +22944,16 @@
         <v>38</v>
       </c>
       <c r="D973" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E973" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F973" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G973" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="974">
@@ -22967,16 +22967,16 @@
         <v>38</v>
       </c>
       <c r="D974" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E974" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F974" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G974" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="975">
@@ -22990,16 +22990,16 @@
         <v>38</v>
       </c>
       <c r="D975" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E975" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F975" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G975" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="976">
@@ -23013,16 +23013,16 @@
         <v>38</v>
       </c>
       <c r="D976" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E976" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F976" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G976" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="977">
@@ -23036,16 +23036,16 @@
         <v>38</v>
       </c>
       <c r="D977" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E977" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F977" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G977" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="978">
@@ -23059,16 +23059,16 @@
         <v>38</v>
       </c>
       <c r="D978" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E978" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F978" t="s">
+        <v>11</v>
+      </c>
+      <c r="G978" t="n">
         <v>17</v>
-      </c>
-      <c r="G978" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="979">
@@ -23082,16 +23082,16 @@
         <v>38</v>
       </c>
       <c r="D979" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E979" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F979" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G979" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="980">
@@ -23105,16 +23105,16 @@
         <v>38</v>
       </c>
       <c r="D980" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E980" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F980" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G980" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="981">
@@ -23128,16 +23128,16 @@
         <v>38</v>
       </c>
       <c r="D981" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E981" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F981" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G981" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="982">
@@ -23151,16 +23151,16 @@
         <v>38</v>
       </c>
       <c r="D982" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E982" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F982" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G982" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="983">
@@ -23174,16 +23174,16 @@
         <v>38</v>
       </c>
       <c r="D983" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E983" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F983" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G983" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="984">
@@ -23197,16 +23197,16 @@
         <v>38</v>
       </c>
       <c r="D984" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E984" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F984" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G984" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="985">
@@ -23220,16 +23220,16 @@
         <v>38</v>
       </c>
       <c r="D985" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E985" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F985" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G985" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="986">
@@ -23243,16 +23243,16 @@
         <v>38</v>
       </c>
       <c r="D986" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E986" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F986" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G986" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="987">
@@ -23266,13 +23266,13 @@
         <v>38</v>
       </c>
       <c r="D987" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E987" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F987" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G987" t="n">
         <v>4</v>
@@ -23289,13 +23289,13 @@
         <v>38</v>
       </c>
       <c r="D988" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E988" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F988" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G988" t="n">
         <v>1</v>
@@ -23312,16 +23312,16 @@
         <v>38</v>
       </c>
       <c r="D989" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E989" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F989" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G989" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="990">
@@ -23335,16 +23335,16 @@
         <v>38</v>
       </c>
       <c r="D990" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E990" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F990" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G990" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991">
@@ -23358,16 +23358,16 @@
         <v>38</v>
       </c>
       <c r="D991" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E991" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F991" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G991" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="992">
@@ -23381,16 +23381,16 @@
         <v>38</v>
       </c>
       <c r="D992" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E992" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F992" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G992" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="993">
@@ -23404,16 +23404,16 @@
         <v>38</v>
       </c>
       <c r="D993" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E993" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F993" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G993" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="994">
@@ -23427,16 +23427,16 @@
         <v>38</v>
       </c>
       <c r="D994" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E994" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F994" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G994" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="995">
@@ -23450,16 +23450,16 @@
         <v>38</v>
       </c>
       <c r="D995" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E995" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F995" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G995" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="996">
@@ -23473,16 +23473,16 @@
         <v>38</v>
       </c>
       <c r="D996" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E996" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F996" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G996" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="997">
@@ -23496,16 +23496,16 @@
         <v>38</v>
       </c>
       <c r="D997" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E997" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F997" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G997" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="998">
@@ -23519,16 +23519,16 @@
         <v>38</v>
       </c>
       <c r="D998" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E998" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F998" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G998" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999">
@@ -23542,16 +23542,16 @@
         <v>38</v>
       </c>
       <c r="D999" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E999" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F999" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G999" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1000">
@@ -23565,16 +23565,16 @@
         <v>38</v>
       </c>
       <c r="D1000" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E1000" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F1000" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G1000" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1001">
@@ -23588,16 +23588,16 @@
         <v>38</v>
       </c>
       <c r="D1001" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E1001" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F1001" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1001" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1002">
@@ -23611,16 +23611,16 @@
         <v>38</v>
       </c>
       <c r="D1002" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E1002" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F1002" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1002" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1003">
@@ -23634,16 +23634,16 @@
         <v>38</v>
       </c>
       <c r="D1003" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E1003" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F1003" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1003" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1004">
@@ -23657,16 +23657,16 @@
         <v>38</v>
       </c>
       <c r="D1004" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E1004" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F1004" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1004" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005">
@@ -23680,16 +23680,16 @@
         <v>38</v>
       </c>
       <c r="D1005" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E1005" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F1005" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G1005" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1006">
@@ -23703,16 +23703,16 @@
         <v>38</v>
       </c>
       <c r="D1006" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E1006" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F1006" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G1006" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1007">
@@ -23726,16 +23726,16 @@
         <v>38</v>
       </c>
       <c r="D1007" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1007" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F1007" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G1007" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1008">
@@ -23749,16 +23749,16 @@
         <v>38</v>
       </c>
       <c r="D1008" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1008" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F1008" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1008" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1009">
@@ -23772,16 +23772,16 @@
         <v>38</v>
       </c>
       <c r="D1009" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1009" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F1009" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1009" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1010">
@@ -23795,16 +23795,16 @@
         <v>38</v>
       </c>
       <c r="D1010" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1010" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F1010" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1010" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1011">
@@ -23818,16 +23818,16 @@
         <v>38</v>
       </c>
       <c r="D1011" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1011" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="F1011" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G1011" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1012">
@@ -23841,16 +23841,16 @@
         <v>38</v>
       </c>
       <c r="D1012" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1012" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F1012" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G1012" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1013">
@@ -23864,16 +23864,16 @@
         <v>38</v>
       </c>
       <c r="D1013" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1013" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F1013" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G1013" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1014">
@@ -23887,16 +23887,16 @@
         <v>38</v>
       </c>
       <c r="D1014" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1014" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F1014" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G1014" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1015">
@@ -23910,16 +23910,16 @@
         <v>38</v>
       </c>
       <c r="D1015" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1015" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F1015" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G1015" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1016">
@@ -23933,16 +23933,16 @@
         <v>38</v>
       </c>
       <c r="D1016" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1016" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F1016" t="s">
         <v>12</v>
       </c>
       <c r="G1016" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1017">
@@ -23956,16 +23956,16 @@
         <v>38</v>
       </c>
       <c r="D1017" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1017" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F1017" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G1017" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1018">
@@ -23979,16 +23979,16 @@
         <v>38</v>
       </c>
       <c r="D1018" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1018" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F1018" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G1018" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1019">
@@ -24002,16 +24002,16 @@
         <v>38</v>
       </c>
       <c r="D1019" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E1019" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F1019" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G1019" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1020">
@@ -24025,16 +24025,16 @@
         <v>38</v>
       </c>
       <c r="D1020" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E1020" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F1020" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G1020" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1021">
@@ -24048,16 +24048,16 @@
         <v>38</v>
       </c>
       <c r="D1021" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E1021" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F1021" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G1021" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1022">
@@ -24071,16 +24071,16 @@
         <v>38</v>
       </c>
       <c r="D1022" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="E1022" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F1022" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G1022" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1023">
@@ -24094,16 +24094,16 @@
         <v>38</v>
       </c>
       <c r="D1023" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E1023" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F1023" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G1023" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1024">
@@ -24117,16 +24117,16 @@
         <v>38</v>
       </c>
       <c r="D1024" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E1024" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F1024" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G1024" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1025">
@@ -24140,16 +24140,16 @@
         <v>38</v>
       </c>
       <c r="D1025" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E1025" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F1025" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G1025" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1026">
@@ -24163,16 +24163,16 @@
         <v>38</v>
       </c>
       <c r="D1026" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E1026" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F1026" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G1026" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1027">
@@ -24186,16 +24186,16 @@
         <v>38</v>
       </c>
       <c r="D1027" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E1027" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F1027" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G1027" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1028">
@@ -24209,16 +24209,16 @@
         <v>38</v>
       </c>
       <c r="D1028" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E1028" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F1028" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G1028" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1029">
@@ -24232,16 +24232,16 @@
         <v>38</v>
       </c>
       <c r="D1029" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E1029" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F1029" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G1029" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1030">
@@ -24255,16 +24255,16 @@
         <v>38</v>
       </c>
       <c r="D1030" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E1030" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F1030" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G1030" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1031">
@@ -24278,16 +24278,16 @@
         <v>38</v>
       </c>
       <c r="D1031" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E1031" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F1031" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G1031" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="1032">
@@ -24301,16 +24301,16 @@
         <v>38</v>
       </c>
       <c r="D1032" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E1032" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F1032" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G1032" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1033">
@@ -24324,16 +24324,16 @@
         <v>38</v>
       </c>
       <c r="D1033" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E1033" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F1033" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1033" t="n">
         <v>11</v>
-      </c>
-      <c r="G1033" t="n">
-        <v>86</v>
       </c>
     </row>
     <row r="1034">
@@ -24347,16 +24347,16 @@
         <v>38</v>
       </c>
       <c r="D1034" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E1034" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F1034" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1034" t="n">
-        <v>108</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1035">
@@ -24370,16 +24370,16 @@
         <v>38</v>
       </c>
       <c r="D1035" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E1035" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F1035" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G1035" t="n">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1036">
@@ -24393,16 +24393,16 @@
         <v>38</v>
       </c>
       <c r="D1036" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E1036" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F1036" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G1036" t="n">
-        <v>93</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1037">
@@ -24416,16 +24416,16 @@
         <v>38</v>
       </c>
       <c r="D1037" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E1037" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F1037" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G1037" t="n">
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1038">
@@ -24439,16 +24439,16 @@
         <v>38</v>
       </c>
       <c r="D1038" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E1038" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F1038" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G1038" t="n">
-        <v>52</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1039">
@@ -24462,16 +24462,16 @@
         <v>38</v>
       </c>
       <c r="D1039" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="E1039" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F1039" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G1039" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1040">
@@ -24485,16 +24485,16 @@
         <v>38</v>
       </c>
       <c r="D1040" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E1040" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F1040" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G1040" t="n">
-        <v>74</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041">
@@ -24508,16 +24508,16 @@
         <v>38</v>
       </c>
       <c r="D1041" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E1041" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F1041" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G1041" t="n">
-        <v>76</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1042">
@@ -24531,16 +24531,16 @@
         <v>38</v>
       </c>
       <c r="D1042" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E1042" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="F1042" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G1042" t="n">
-        <v>73</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1043">
@@ -24554,16 +24554,16 @@
         <v>38</v>
       </c>
       <c r="D1043" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E1043" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="F1043" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1043" t="n">
-        <v>78</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1044">
@@ -24577,16 +24577,16 @@
         <v>38</v>
       </c>
       <c r="D1044" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E1044" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="F1044" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1044" t="n">
-        <v>66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1045">
@@ -24600,16 +24600,16 @@
         <v>38</v>
       </c>
       <c r="D1045" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E1045" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="F1045" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1045" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1046">
@@ -24623,16 +24623,16 @@
         <v>38</v>
       </c>
       <c r="D1046" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E1046" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="F1046" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1046" t="n">
-        <v>75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1047">
@@ -24646,16 +24646,16 @@
         <v>38</v>
       </c>
       <c r="D1047" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E1047" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F1047" t="s">
         <v>11</v>
       </c>
       <c r="G1047" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1048">
@@ -24669,16 +24669,16 @@
         <v>38</v>
       </c>
       <c r="D1048" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E1048" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F1048" t="s">
         <v>12</v>
       </c>
       <c r="G1048" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="1049">
@@ -24692,16 +24692,16 @@
         <v>38</v>
       </c>
       <c r="D1049" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E1049" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F1049" t="s">
         <v>13</v>
       </c>
       <c r="G1049" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1050">
@@ -24715,16 +24715,16 @@
         <v>38</v>
       </c>
       <c r="D1050" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E1050" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F1050" t="s">
         <v>14</v>
       </c>
       <c r="G1050" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1051">
@@ -24738,16 +24738,16 @@
         <v>38</v>
       </c>
       <c r="D1051" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E1051" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F1051" t="s">
         <v>15</v>
       </c>
       <c r="G1051" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1052">
@@ -24761,16 +24761,16 @@
         <v>38</v>
       </c>
       <c r="D1052" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E1052" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F1052" t="s">
         <v>16</v>
       </c>
       <c r="G1052" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1053">
@@ -24784,16 +24784,16 @@
         <v>38</v>
       </c>
       <c r="D1053" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E1053" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F1053" t="s">
         <v>17</v>
       </c>
       <c r="G1053" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1054">
@@ -24807,16 +24807,16 @@
         <v>38</v>
       </c>
       <c r="D1054" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E1054" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F1054" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G1054" t="n">
-        <v>65</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1055">
@@ -24830,16 +24830,16 @@
         <v>38</v>
       </c>
       <c r="D1055" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E1055" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F1055" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1055" t="n">
-        <v>96</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1056">
@@ -24853,16 +24853,16 @@
         <v>38</v>
       </c>
       <c r="D1056" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E1056" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F1056" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1056" t="n">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="1057">
@@ -24876,16 +24876,16 @@
         <v>38</v>
       </c>
       <c r="D1057" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E1057" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F1057" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1057" t="n">
-        <v>105</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1058">
@@ -24899,16 +24899,16 @@
         <v>38</v>
       </c>
       <c r="D1058" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E1058" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F1058" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1058" t="n">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1059">
@@ -24922,16 +24922,16 @@
         <v>38</v>
       </c>
       <c r="D1059" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E1059" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F1059" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1059" t="n">
-        <v>86</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1060">
@@ -24945,16 +24945,16 @@
         <v>38</v>
       </c>
       <c r="D1060" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E1060" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F1060" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1060" t="n">
-        <v>81</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1061">
@@ -24968,16 +24968,16 @@
         <v>38</v>
       </c>
       <c r="D1061" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E1061" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F1061" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G1061" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1062">
@@ -24991,16 +24991,16 @@
         <v>38</v>
       </c>
       <c r="D1062" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E1062" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F1062" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G1062" t="n">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1063">
@@ -25014,16 +25014,16 @@
         <v>38</v>
       </c>
       <c r="D1063" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E1063" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F1063" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G1063" t="n">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="1064">
@@ -25037,16 +25037,16 @@
         <v>38</v>
       </c>
       <c r="D1064" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E1064" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F1064" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G1064" t="n">
-        <v>57</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1065">
@@ -25060,16 +25060,16 @@
         <v>38</v>
       </c>
       <c r="D1065" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E1065" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F1065" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1065" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1066">
@@ -25083,16 +25083,16 @@
         <v>38</v>
       </c>
       <c r="D1066" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E1066" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F1066" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1066" t="n">
-        <v>35</v>
+        <v>93</v>
       </c>
     </row>
     <row r="1067">
@@ -25106,16 +25106,16 @@
         <v>38</v>
       </c>
       <c r="D1067" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E1067" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F1067" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G1067" t="n">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="1068">
@@ -25129,16 +25129,16 @@
         <v>38</v>
       </c>
       <c r="D1068" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E1068" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F1068" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G1068" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="1069">
@@ -25152,16 +25152,16 @@
         <v>38</v>
       </c>
       <c r="D1069" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E1069" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F1069" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G1069" t="n">
-        <v>3</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1070">
@@ -25175,16 +25175,16 @@
         <v>38</v>
       </c>
       <c r="D1070" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="E1070" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F1070" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G1070" t="n">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1071">
@@ -25198,16 +25198,16 @@
         <v>38</v>
       </c>
       <c r="D1071" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1071" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="F1071" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G1071" t="n">
-        <v>2</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1072">
@@ -25221,16 +25221,16 @@
         <v>38</v>
       </c>
       <c r="D1072" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1072" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="F1072" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G1072" t="n">
-        <v>2</v>
+        <v>76</v>
       </c>
     </row>
     <row r="1073">
@@ -25244,16 +25244,16 @@
         <v>38</v>
       </c>
       <c r="D1073" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1073" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="F1073" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G1073" t="n">
-        <v>4</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1074">
@@ -25267,16 +25267,16 @@
         <v>38</v>
       </c>
       <c r="D1074" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1074" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="F1074" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G1074" t="n">
-        <v>2</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1075">
@@ -25290,16 +25290,16 @@
         <v>38</v>
       </c>
       <c r="D1075" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1075" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="F1075" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G1075" t="n">
-        <v>1</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1076">
@@ -25313,16 +25313,16 @@
         <v>38</v>
       </c>
       <c r="D1076" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1076" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="F1076" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G1076" t="n">
-        <v>2</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1077">
@@ -25336,16 +25336,16 @@
         <v>38</v>
       </c>
       <c r="D1077" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1077" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="F1077" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1077" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1078">
@@ -25359,16 +25359,16 @@
         <v>38</v>
       </c>
       <c r="D1078" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1078" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="F1078" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1078" t="n">
-        <v>2</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1079">
@@ -25385,13 +25385,13 @@
         <v>67</v>
       </c>
       <c r="E1079" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F1079" t="s">
         <v>11</v>
       </c>
       <c r="G1079" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="1080">
@@ -25408,13 +25408,13 @@
         <v>67</v>
       </c>
       <c r="E1080" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F1080" t="s">
         <v>12</v>
       </c>
       <c r="G1080" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1081">
@@ -25431,13 +25431,13 @@
         <v>67</v>
       </c>
       <c r="E1081" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F1081" t="s">
         <v>13</v>
       </c>
       <c r="G1081" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1082">
@@ -25454,13 +25454,13 @@
         <v>67</v>
       </c>
       <c r="E1082" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F1082" t="s">
         <v>14</v>
       </c>
       <c r="G1082" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1083">
@@ -25477,13 +25477,13 @@
         <v>67</v>
       </c>
       <c r="E1083" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F1083" t="s">
         <v>15</v>
       </c>
       <c r="G1083" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1084">
@@ -25500,13 +25500,13 @@
         <v>67</v>
       </c>
       <c r="E1084" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F1084" t="s">
         <v>16</v>
       </c>
       <c r="G1084" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="1085">
@@ -25523,13 +25523,13 @@
         <v>67</v>
       </c>
       <c r="E1085" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F1085" t="s">
         <v>17</v>
       </c>
       <c r="G1085" t="n">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1086">
@@ -25546,13 +25546,13 @@
         <v>67</v>
       </c>
       <c r="E1086" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F1086" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G1086" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1087">
@@ -25569,13 +25569,13 @@
         <v>67</v>
       </c>
       <c r="E1087" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F1087" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1087" t="n">
-        <v>3</v>
+        <v>65</v>
       </c>
     </row>
     <row r="1088">
@@ -25592,13 +25592,13 @@
         <v>67</v>
       </c>
       <c r="E1088" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F1088" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1088" t="n">
-        <v>8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="1089">
@@ -25615,13 +25615,13 @@
         <v>67</v>
       </c>
       <c r="E1089" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F1089" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G1089" t="n">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1090">
@@ -25638,13 +25638,13 @@
         <v>67</v>
       </c>
       <c r="E1090" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F1090" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1090" t="n">
-        <v>5</v>
+        <v>105</v>
       </c>
     </row>
     <row r="1091">
@@ -25661,13 +25661,13 @@
         <v>67</v>
       </c>
       <c r="E1091" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F1091" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1091" t="n">
-        <v>4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="1092">
@@ -25684,13 +25684,864 @@
         <v>67</v>
       </c>
       <c r="E1092" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1092" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1092" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1093" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1093" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1093" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1094" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1094" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1094" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1095" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1095" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1095" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1096" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1096" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1096" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1097" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1097" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1097" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1098" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1098" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1098" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1099" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1099" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1099" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1100" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1100" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1100" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1101" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1101" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1101" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1102" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1102" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1102" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1103" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1104" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1104" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1105" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1105" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1106" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1106" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1107" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1107" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1108" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1108" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1109" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1110" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1111" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1111" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1112" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1112" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1113" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1113" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1114" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1114" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1114" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1115" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1115" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1115" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1116" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1116" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1116" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1117" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1117" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1117" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1118" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1118" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1118" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1119" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1119" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1119" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1120" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1120" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1120" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1121" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1121" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1121" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1122" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1122" t="s">
         <v>74</v>
       </c>
-      <c r="F1092" t="s">
+      <c r="F1122" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1123" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1123" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1124" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1125" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1125" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1125" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1126" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1126" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1126" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1127" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1127" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1127" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1128" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1128" t="s">
         <v>17</v>
       </c>
-      <c r="G1092" t="n">
+      <c r="G1128" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1129" t="n">
+        <v>2024</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1129" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1129" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
